--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,27 +40,21 @@
     <t>name</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
@@ -70,79 +64,79 @@
     <t>scary</t>
   </si>
   <si>
+    <t>seriously</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>seriously</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>crazy</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
-    <t>wow</t>
+    <t>new</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
     <t>documentary</t>
   </si>
   <si>
-    <t>dilemma</t>
-  </si>
-  <si>
     <t>media</t>
   </si>
   <si>
-    <t>netflix</t>
+    <t>watching</t>
   </si>
   <si>
     <t>watch</t>
   </si>
   <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -503,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,10 +505,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -572,13 +566,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -590,19 +584,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -614,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -622,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -643,16 +637,16 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K4">
-        <v>0.92</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L4">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -664,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -672,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9545454545454546</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C5">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -690,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>0.8333333333333334</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -714,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -722,13 +716,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9423076923076923</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C6">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -743,16 +737,16 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6">
-        <v>0.7368421052631579</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -764,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -775,10 +769,10 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -790,19 +784,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K7">
-        <v>0.6</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -814,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -822,13 +816,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7647058823529411</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -840,19 +834,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>0.5862068965517241</v>
+        <v>0.6133333333333333</v>
       </c>
       <c r="L8">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -864,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -872,13 +866,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -890,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K9">
-        <v>0.4833333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -914,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -922,13 +916,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6842105263157895</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -940,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.2916666666666667</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="L10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -964,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -972,13 +966,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.675</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -990,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.1320582877959927</v>
+        <v>0.1329690346083789</v>
       </c>
       <c r="L11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1014,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1022,13 +1016,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5869565217391305</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C12">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1040,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.09187279151943463</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="L12">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M12">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1064,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>257</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1072,13 +1066,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5217391304347826</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1093,16 +1087,16 @@
         <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>0.07936507936507936</v>
+        <v>0.06984126984126984</v>
       </c>
       <c r="L13">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M13">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1114,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1143,16 +1137,16 @@
         <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0.05120481927710843</v>
+        <v>0.06360424028268551</v>
       </c>
       <c r="L14">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M14">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1164,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>630</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1172,13 +1166,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4680851063829787</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1190,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K15">
-        <v>0.04814814814814815</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="L15">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1214,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>514</v>
+        <v>632</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1222,38 +1216,38 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4615384615384616</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>19</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16">
+        <v>0.03519061583577713</v>
+      </c>
+      <c r="L16">
         <v>12</v>
       </c>
-      <c r="D16">
+      <c r="M16">
         <v>12</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>14</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16">
-        <v>0.04220779220779221</v>
-      </c>
-      <c r="L16">
-        <v>26</v>
-      </c>
-      <c r="M16">
-        <v>26</v>
-      </c>
       <c r="N16">
         <v>1</v>
       </c>
@@ -1264,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>590</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1272,13 +1266,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4285714285714285</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1290,31 +1284,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>0.02649769585253456</v>
+        <v>0.03094462540716612</v>
       </c>
       <c r="L17">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="M17">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>1690</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1322,13 +1316,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4102564102564102</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1340,19 +1334,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K18">
-        <v>0.01920614596670935</v>
+        <v>0.02995391705069124</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="M18">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1364,59 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.3428571428571429</v>
-      </c>
-      <c r="C19">
-        <v>12</v>
-      </c>
-      <c r="D19">
-        <v>12</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.2051282051282051</v>
-      </c>
-      <c r="C20">
-        <v>16</v>
-      </c>
-      <c r="D20">
-        <v>16</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>62</v>
+        <v>1684</v>
       </c>
     </row>
   </sheetData>
